--- a/Fine_SevClass_080513.xlsx
+++ b/Fine_SevClass_080513.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="135" windowWidth="24630" windowHeight="11010" activeTab="7"/>
+    <workbookView xWindow="-30" yWindow="-60" windowWidth="26205" windowHeight="10125" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AICC" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="402">
   <si>
     <t xml:space="preserve">aiccage </t>
   </si>
@@ -1206,6 +1206,33 @@
   </si>
   <si>
     <t>Limited Surival Population</t>
+  </si>
+  <si>
+    <t>m_t</t>
+  </si>
+  <si>
+    <t>m_s</t>
+  </si>
+  <si>
+    <t>mod_t</t>
+  </si>
+  <si>
+    <t>mod_s</t>
+  </si>
+  <si>
+    <t>sev_t</t>
+  </si>
+  <si>
+    <t>sev_s</t>
+  </si>
+  <si>
+    <t>hi_sev_t</t>
+  </si>
+  <si>
+    <t>hi_sev_s</t>
+  </si>
+  <si>
+    <t>Test 4 Groups</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2089,24 +2116,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2141,18 +2153,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2161,18 +2161,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2189,9 +2177,50 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2762,11 +2791,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="170441728"/>
-        <c:axId val="170455808"/>
+        <c:axId val="176866816"/>
+        <c:axId val="176868352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="170441728"/>
+        <c:axId val="176866816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2776,12 +2805,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170455808"/>
+        <c:crossAx val="176868352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="170455808"/>
+        <c:axId val="176868352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2792,7 +2821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170441728"/>
+        <c:crossAx val="176866816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2839,11 +2868,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KM_E!$B$1</c:f>
+              <c:f>Adj_E!$AH$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mild</c:v>
+                  <c:v>m_s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2853,414 +2882,156 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>KM_E!$A$2:$A$67</c:f>
+              <c:f>Adj_E!$AG$4:$AG$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74794520549999999</c:v>
+                  <c:v>0.9780821917808219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85205479449999999</c:v>
+                  <c:v>2.3698630136986303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9780821918</c:v>
+                  <c:v>5.4356164383561643</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.098630137</c:v>
+                  <c:v>6.6630136986301371</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6410958903999999</c:v>
+                  <c:v>7.5945205479452058</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8876712329000001</c:v>
+                  <c:v>7.6849315068493151</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3698630136999999</c:v>
+                  <c:v>7.7397260273972606</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6657534247000001</c:v>
+                  <c:v>7.7698630136986298</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0301369863000001</c:v>
+                  <c:v>7.7945205479452051</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0547945205000002</c:v>
+                  <c:v>8.1342465753424662</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8438356163999998</c:v>
+                  <c:v>9.1095890410958908</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8465753425</c:v>
+                  <c:v>9.331506849315069</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1287671233000003</c:v>
+                  <c:v>9.7616438356164377</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.2164383562000003</c:v>
+                  <c:v>10.024657534246575</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3452054794999997</c:v>
+                  <c:v>10.027397260273972</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.6356164383999996</c:v>
+                  <c:v>10.789041095890411</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0767123288000002</c:v>
+                  <c:v>11.021917808219179</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3424657534</c:v>
+                  <c:v>11.024657534246575</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.4356164384000003</c:v>
+                  <c:v>11.093150684931507</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.9698630137000004</c:v>
+                  <c:v>11.90958904109589</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.1780821917999997</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.3452054794999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.5561643835999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.6630136986000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.7753424657999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.8575342466000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.8986301369999996</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.9780821917999996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.1863013698999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.2027397259999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.5945205479000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.6849315067999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.7397260273999997</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7.7698630137000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.7945205479000004</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.9479452054999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.0821917808000006</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.1205479452000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.1342465753000006</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8.1616438355999996</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8.2438356164000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8.6219178081999992</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8.8684931507000009</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9.0054794520999994</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9.1095890410999996</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9.3315068493000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>9.4630136985999993</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9.7616438355999993</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9.7643835616000008</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9.8438356163999998</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>10.024657533999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>10.027397260000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>10.421917808</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10.457534247</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>10.789041096</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>10.832876711999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>10.931506849</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>11.021917808</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>11.024657533999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>11.093150684999999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>11.909589041</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>12.273972603000001</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>12.810958904</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>14.843835616</c:v>
+                  <c:v>14.843835616438357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>KM_E!$B$2:$B$67</c:f>
+              <c:f>Adj_E!$AH$4:$AH$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.98430743550177369</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.96744451611729909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98412698409999999</c:v>
+                  <c:v>0.94489716138985747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98412698409999999</c:v>
+                  <c:v>0.91956557692473284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98412698409999999</c:v>
+                  <c:v>0.88817008236053008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98412698409999999</c:v>
+                  <c:v>0.85624598137698316</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.96744686580000006</c:v>
+                  <c:v>0.82474569564725098</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96744686580000006</c:v>
+                  <c:v>0.79409601623230275</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96744686580000006</c:v>
+                  <c:v>0.76314227269536739</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.96744686580000006</c:v>
+                  <c:v>0.72641233158951435</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96744686580000006</c:v>
+                  <c:v>0.67399932199254997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.96744686580000006</c:v>
+                  <c:v>0.62133326737340977</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.96744686580000006</c:v>
+                  <c:v>0.56709265583036705</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.96744686580000006</c:v>
+                  <c:v>0.50116576903688137</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.96744686580000006</c:v>
+                  <c:v>0.4334760772593762</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.96744686580000006</c:v>
+                  <c:v>0.34594778785256958</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.96744686580000006</c:v>
+                  <c:v>0.21102200990879294</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.96744686580000006</c:v>
+                  <c:v>0.1188716608506957</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.9468628899</c:v>
+                  <c:v>5.5330334020579602E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.9468628899</c:v>
+                  <c:v>1.9128721755286317E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9468628899</c:v>
+                  <c:v>1.3065995166277162E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9468628899</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.9468628899</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.92431853539999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.92431853539999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.92431853539999997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.92431853539999997</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.92431853539999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.92431853539999997</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.92431853539999997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.89790943440000004</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.87150033329999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.84509123230000005</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.8186821313</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.79227303029999996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.79227303029999996</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.79227303029999996</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.79227303029999996</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.76292958470000005</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.76292958470000005</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.76292958470000005</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.76292958470000005</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.76292958470000005</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.76292958470000005</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.72659960450000005</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.69026962430000005</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.69026962430000005</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.65192131180000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.65192131180000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.65192131180000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.60845989099999997</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.56499847030000006</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.56499847030000006</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.56499847030000006</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.51363497300000005</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.51363497300000005</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.51363497300000005</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.44943060130000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.38522622969999998</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.3210218581</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.25681748650000003</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.25681748650000003</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.25681748650000003</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.12840874320000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.12840874320000001</c:v>
+                  <c:v>1.511866996046503E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3272,11 +3043,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>KM_E!$D$1</c:f>
+              <c:f>Adj_E!$AI$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Moderate</c:v>
+                  <c:v>mod_t</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3286,288 +3057,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>KM_E!$C$2:$C$46</c:f>
+              <c:f>Adj_E!$AI$4:$AI$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32602739730000002</c:v>
+                  <c:v>5.9534246575342467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4328767122999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5260273973</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6465753425</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.6410958903999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6657534247000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.0164383562000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.2356164384000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.3726027397</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.3917808218999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5780821918000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.8904109589</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.0410958904000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.3753424658000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.5232876712000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.6630136986000004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.8712328766999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.9753424657999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.1013698630000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.3671232877000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.9534246575000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.9835616437999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.9945205478999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.1671232877</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7232876711999996</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.7424657534000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.7780821918000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.7945205479000004</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.9150684931999997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.9753424657999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.0739726026999996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.1643835616000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7.2876712329000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.0109589041000007</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.3260273973000007</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.3698630136999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.3506849315</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9.8794520547999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10.775342466</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10.942465753</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>11.175342466</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>11.539726027</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>11.835616438000001</c:v>
+                  <c:v>9.8794520547945197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>KM_E!$D$2:$D$46</c:f>
+              <c:f>Adj_E!$AJ$4:$AJ$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.89682586234319284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97674418600000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95348837210000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93023255810000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.90697674419999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.88372093019999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88372093019999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.85983658080000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.83595223129999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.83595223129999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.83595223129999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.83595223129999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.83595223129999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.83595223129999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.83595223129999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.83595223129999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.83595223129999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.80499103750000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.77402984379999995</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.77402984379999995</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.77402984379999995</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.74037637229999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.70672290090000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.67306942940000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.63941595790000005</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.60576248649999997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.60576248649999997</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.60576248649999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.60576248649999997</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.60576248649999997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.60576248649999997</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.60576248649999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.60576248649999997</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.55069316950000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.55069316950000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.55069316950000002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.48185652330000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.41301987709999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.34418323090000003</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.27534658480000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.2065099386</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.13767329240000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.8836646200000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.8836646200000004E-2</c:v>
+                  <c:v>0.25311934491608906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3579,11 +3098,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>KM_E!$F$1</c:f>
+              <c:f>Adj_E!$AK$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Severe</c:v>
+                  <c:v>sev_t</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3593,144 +3112,301 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>KM_E!$E$2:$E$22</c:f>
+              <c:f>Adj_E!$AK$4:$AK$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70136986300000004</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76164383560000004</c:v>
+                  <c:v>1.4328767123287671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91506849320000005</c:v>
+                  <c:v>1.526027397260274</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1863013699</c:v>
+                  <c:v>1.6465753424657534</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4657534246999999</c:v>
+                  <c:v>2.6410958904109587</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.495890411</c:v>
+                  <c:v>3.0164383561643837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6</c:v>
+                  <c:v>3.2356164383561645</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9452054795</c:v>
+                  <c:v>4.8712328767123285</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6493150685</c:v>
+                  <c:v>4.9753424657534246</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9972602739999998</c:v>
+                  <c:v>5.9835616438356167</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1095890411</c:v>
+                  <c:v>5.9945205479452053</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1616438355999996</c:v>
+                  <c:v>6.1671232876712327</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5013698629999999</c:v>
+                  <c:v>6.7232876712328764</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5643835615999997</c:v>
+                  <c:v>7.2876712328767121</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.8</c:v>
+                  <c:v>8.3698630136986303</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.2082191781000002</c:v>
+                  <c:v>9.3506849315068497</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.4821917808</c:v>
+                  <c:v>10.775342465753425</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.5068493151000002</c:v>
+                  <c:v>10.942465753424658</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.9835616437999999</c:v>
+                  <c:v>11.175342465753424</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.1479452054999992</c:v>
+                  <c:v>11.53972602739726</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.835616438356164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>KM_E!$F$2:$F$22</c:f>
+              <c:f>Adj_E!$AL$4:$AL$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95</c:v>
+                  <c:v>0.97438733748656681</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9</c:v>
+                  <c:v>0.94825973135865715</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85</c:v>
+                  <c:v>0.92164470478429839</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>0.89430568495291041</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>0.86645897549817319</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7</c:v>
+                  <c:v>0.83846156044595033</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65</c:v>
+                  <c:v>0.8101993731313184</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6</c:v>
+                  <c:v>0.77149405181540798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.73344982862943253</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>0.692593507216132</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45</c:v>
+                  <c:v>0.65022728230475224</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.45</c:v>
+                  <c:v>0.6071252625540392</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39374999999999999</c:v>
+                  <c:v>0.56459071686169549</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33750000000000002</c:v>
+                  <c:v>0.49073290799309527</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.28125</c:v>
+                  <c:v>0.423832704596945</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.22500000000000001</c:v>
+                  <c:v>0.34995558362822943</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16875000000000001</c:v>
+                  <c:v>0.26285517715230289</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1125</c:v>
+                  <c:v>0.16860247537862291</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.6250000000000001E-2</c:v>
+                  <c:v>1.4436176736993567E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.6250000000000001E-2</c:v>
+                  <c:v>1.4096139235240455E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5570924920317128E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Adj_E!$AM$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hi_sev_t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Adj_E!$AM$4:$AM$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70136986301369864</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76164383561643834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91506849315068495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1863013698630136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4657534246575343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4958904109589042</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9452054794520548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6493150684931508</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9972602739726026</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1095890410958904</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5013698630136982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5643835616438357</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2082191780821914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4821917808219176</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.506849315068493</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.9835616438356167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Adj_E!$AN$4:$AN$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96911669215366325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93735787889546329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9047795683374531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8711939178503969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83653499046206292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80108124679923665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76420978198605005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7261435409823318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6873488801409301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6462207189342144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60299313746856453</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55095437766850752</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49929578472830194</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4442604146000948</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38371276556382689</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.31546696030873705</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.24725079839023695</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1549077933492263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3745,11 +3421,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="170011264"/>
-        <c:axId val="170017152"/>
+        <c:axId val="157976448"/>
+        <c:axId val="157974912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="170011264"/>
+        <c:axId val="157976448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3759,12 +3435,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170017152"/>
+        <c:crossAx val="157974912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="170017152"/>
+        <c:axId val="157974912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3775,7 +3451,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170011264"/>
+        <c:crossAx val="157976448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3822,7 +3498,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Adj_CE!$B$1</c:f>
+              <c:f>KM_E!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3836,23 +3512,206 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Adj_CE!$A$2:$A$6</c:f>
+              <c:f>KM_E!$A$2:$A$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.74794520549999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85205479449999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9780821918</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.098630137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6410958903999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8876712329000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3698630136999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6657534247000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0301369863000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0547945205000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8438356163999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8465753425</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1287671233000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2164383562000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3452054794999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6356164383999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0767123288000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3424657534</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.4356164384000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.9698630137000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.1780821917999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.3452054794999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.5561643835999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.6630136986000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.7753424657999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.8575342466000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.8986301369999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.9780821917999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.1863013698999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.2027397259999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.5945205479000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>7.6849315067999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="33">
+                  <c:v>7.7397260273999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.7698630137000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.7945205479000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.9479452054999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.0821917808000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.1205479452000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.1342465753000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.1616438355999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.2438356164000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.6219178081999992</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.8684931507000009</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.0054794520999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.1095890410999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.3315068493000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.4630136985999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>9.7616438355999993</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="49">
+                  <c:v>9.7643835616000008</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.8438356163999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.024657533999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.027397260000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.421917808</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.457534247</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.789041096</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10.832876711999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.931506849</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.021917808</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>11.024657533999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="60">
+                  <c:v>11.093150684999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.909589041</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.273972603000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12.810958904</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>14.843835616</c:v>
                 </c:pt>
               </c:numCache>
@@ -3860,24 +3719,207 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Adj_CE!$B$2:$B$6</c:f>
+              <c:f>KM_E!$B$2:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96548577270000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88490110570000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47404106610000002</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>1.7497253999999999E-8</c:v>
+                  <c:v>0.98412698409999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98412698409999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98412698409999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98412698409999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96744686580000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96744686580000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96744686580000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96744686580000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96744686580000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96744686580000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96744686580000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96744686580000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96744686580000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96744686580000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96744686580000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96744686580000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9468628899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9468628899</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9468628899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9468628899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9468628899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92431853539999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92431853539999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92431853539999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.92431853539999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.92431853539999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.92431853539999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.92431853539999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.89790943440000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.87150033329999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.84509123230000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.8186821313</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.79227303029999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.79227303029999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79227303029999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.79227303029999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76292958470000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.76292958470000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.76292958470000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.76292958470000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.76292958470000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.76292958470000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.72659960450000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.69026962430000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.69026962430000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.65192131180000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.65192131180000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.65192131180000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.60845989099999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.56499847030000006</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.56499847030000006</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.56499847030000006</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.51363497300000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.51363497300000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.51363497300000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.44943060130000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.38522622969999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.3210218581</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.25681748650000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.25681748650000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.25681748650000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.12840874320000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.12840874320000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3889,7 +3931,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Adj_CE!$D$1</c:f>
+              <c:f>KM_E!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3903,96 +3945,288 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Adj_CE!$C$2:$C$14</c:f>
+              <c:f>KM_E!$C$2:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.32602739730000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.4328767122999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.5260273973</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1.6465753425</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2.6410958903999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>2.6657534247000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3.0164383562000001</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>3.2356164384000001</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>3.3726027397</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3917808218999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5780821918000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8904109589</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0410958904000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3753424658000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5232876712000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.6630136986000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>4.8712328766999997</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="19">
                   <c:v>4.9753424657999998</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="20">
+                  <c:v>5.1013698630000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3671232877000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.9534246575000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.9835616437999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>5.9945205478999997</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="25">
+                  <c:v>6.1671232877</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>6.7232876711999996</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="27">
+                  <c:v>6.7424657534000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.7780821918000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.7945205479000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.9150684931999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.9753424657999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.0739726026999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.1643835616000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.2876712329000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.0109589041000007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.3260273973000007</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.3698630136999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.3506849315</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.8794520547999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.775342466</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.942465753</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.175342466</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>11.539726027</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.835616438000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Adj_CE!$D$2:$D$14</c:f>
+              <c:f>KM_E!$D$2:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98336094900000004</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96643223899999997</c:v>
+                  <c:v>0.97674418600000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94917998879999999</c:v>
+                  <c:v>0.95348837210000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93154985180000005</c:v>
+                  <c:v>0.93023255810000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91379464190000004</c:v>
+                  <c:v>0.90697674419999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89540429929999998</c:v>
+                  <c:v>0.88372093019999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.87687526979999997</c:v>
+                  <c:v>0.88372093019999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.85078583770000005</c:v>
+                  <c:v>0.85983658080000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82495382449999999</c:v>
+                  <c:v>0.83595223129999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79178923680000002</c:v>
+                  <c:v>0.83595223129999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.75660987160000004</c:v>
+                  <c:v>0.83595223129999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0201450999999999E-3</c:v>
+                  <c:v>0.83595223129999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83595223129999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83595223129999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83595223129999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.83595223129999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83595223129999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.80499103750000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.77402984379999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.77402984379999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77402984379999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.74037637229999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.70672290090000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.67306942940000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.63941595790000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.60576248649999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.60576248649999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60576248649999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.60576248649999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.60576248649999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.60576248649999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.60576248649999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.60576248649999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.55069316950000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.55069316950000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.55069316950000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.48185652330000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.41301987709999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.34418323090000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.27534658480000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.2065099386</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.13767329240000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.8836646200000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.8836646200000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4004,7 +4238,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Adj_CE!$F$1</c:f>
+              <c:f>KM_E!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4018,10 +4252,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Adj_CE!$E$2:$E$16</c:f>
+              <c:f>KM_E!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4035,91 +4269,127 @@
                   <c:v>0.91506849320000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.1863013699</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.4657534246999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1.495890411</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.9452054795</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>2.6493150685</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>2.9972602739999998</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>3.1095890411</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>4.1616438355999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5013698629999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5643835615999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>4.8</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>5.2082191781000002</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>6.4821917808</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>6.5068493151000002</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>6.9835616437999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.1479452054999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Adj_CE!$F$2:$F$16</c:f>
+              <c:f>KM_E!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96928810659999998</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93805504419999997</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90585262690000001</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86992519479999997</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8328109226</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78990900239999995</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.74616473370000003</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69927473110000005</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.64942609039999999</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57286066150000003</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.49172145719999999</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40550519540000002</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3233295108</c:v>
+                  <c:v>0.39374999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2125226117</c:v>
+                  <c:v>0.33750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16875000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.6250000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4134,11 +4404,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="170488960"/>
-        <c:axId val="170490496"/>
+        <c:axId val="177473024"/>
+        <c:axId val="177474560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="170488960"/>
+        <c:axId val="177473024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4148,12 +4418,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170490496"/>
+        <c:crossAx val="177474560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="170490496"/>
+        <c:axId val="177474560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4164,7 +4434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170488960"/>
+        <c:crossAx val="177473024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4211,6 +4481,395 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>Adj_CE!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mild</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Adj_CE!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6849315067999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7616438355999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.024657533999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.843835616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Adj_CE!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96548577270000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88490110570000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47404106610000002</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>1.7497253999999999E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Adj_CE!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moderate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Adj_CE!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4328767122999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5260273973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6465753425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6410958903999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0164383562000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2356164384000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8712328766999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9753424657999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9945205478999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.7232876711999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.539726027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Adj_CE!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98336094900000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96643223899999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94917998879999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93154985180000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91379464190000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89540429929999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87687526979999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85078583770000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82495382449999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79178923680000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75660987160000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0201450999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Adj_CE!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Severe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Adj_CE!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70136986300000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76164383560000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91506849320000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4657534246999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.495890411</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9452054795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6493150685</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9972602739999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1095890411</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2082191781000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4821917808</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5068493151000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.9835616437999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Adj_CE!$F$2:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96928810659999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93805504419999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90585262690000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86992519479999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8328109226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78990900239999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74616473370000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69927473110000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64942609039999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57286066150000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49172145719999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40550519540000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3233295108</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2125226117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="177528832"/>
+        <c:axId val="177530368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="177528832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177530368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="177530368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177528832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>KM_CE!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -5117,11 +5776,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="172752256"/>
-        <c:axId val="172631168"/>
+        <c:axId val="177025792"/>
+        <c:axId val="177027328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="172752256"/>
+        <c:axId val="177025792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5131,12 +5790,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172631168"/>
+        <c:crossAx val="177027328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="172631168"/>
+        <c:axId val="177027328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5147,7 +5806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172752256"/>
+        <c:crossAx val="177025792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5254,6 +5913,36 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13998,7 +14687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A111" workbookViewId="0">
       <selection sqref="A1:R1048576"/>
     </sheetView>
   </sheetViews>
@@ -20799,242 +21488,238 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="210" t="s">
         <v>391</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
     </row>
     <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="214" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="216" t="s">
         <v>384</v>
       </c>
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="216" t="s">
         <v>385</v>
       </c>
-      <c r="D2" s="194" t="s">
+      <c r="D2" s="189" t="s">
         <v>386</v>
       </c>
-      <c r="E2" s="195" t="s">
+      <c r="E2" s="190" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="203"/>
+      <c r="A3" s="215"/>
       <c r="B3" s="205"/>
       <c r="C3" s="205"/>
-      <c r="D3" s="192" t="s">
+      <c r="D3" s="187" t="s">
         <v>384</v>
       </c>
-      <c r="E3" s="196" t="s">
+      <c r="E3" s="191" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="197">
-        <v>0</v>
-      </c>
-      <c r="B4" s="193">
+      <c r="A4" s="192">
+        <v>0</v>
+      </c>
+      <c r="B4" s="188">
         <v>75</v>
       </c>
-      <c r="C4" s="193">
+      <c r="C4" s="188">
         <v>45.18</v>
       </c>
-      <c r="D4" s="193">
+      <c r="D4" s="188">
         <v>75</v>
       </c>
-      <c r="E4" s="198">
+      <c r="E4" s="193">
         <v>45.18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="199">
-        <v>1</v>
-      </c>
-      <c r="B5" s="200">
+      <c r="A5" s="194">
+        <v>1</v>
+      </c>
+      <c r="B5" s="195">
         <v>91</v>
       </c>
-      <c r="C5" s="200">
+      <c r="C5" s="195">
         <v>54.82</v>
       </c>
-      <c r="D5" s="200">
+      <c r="D5" s="195">
         <v>166</v>
       </c>
-      <c r="E5" s="201">
+      <c r="E5" s="196">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="206"/>
+      <c r="A6" s="197"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="206" t="s">
         <v>387</v>
       </c>
-      <c r="B7" s="210"/>
+      <c r="B7" s="207"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="211" t="s">
+      <c r="A8" s="208" t="s">
         <v>388</v>
       </c>
-      <c r="B8" s="212"/>
+      <c r="B8" s="209"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="207" t="s">
+      <c r="A9" s="198" t="s">
         <v>389</v>
       </c>
-      <c r="B9" s="198">
+      <c r="B9" s="193">
         <v>1.5422</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="207" t="s">
+      <c r="A10" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="198">
+      <c r="B10" s="193">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="208" t="s">
+      <c r="A11" s="199" t="s">
         <v>390</v>
       </c>
-      <c r="B11" s="213">
+      <c r="B11" s="200">
         <v>0.21429999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="184" t="s">
+      <c r="A16" s="211" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="185"/>
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="186"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="212"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="213"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="211" t="s">
+      <c r="A17" s="208" t="s">
         <v>146</v>
       </c>
-      <c r="B17" s="212"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="209"/>
     </row>
     <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="215" t="s">
+      <c r="A18" s="202" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="217" t="s">
+      <c r="B18" s="204" t="s">
         <v>384</v>
       </c>
-      <c r="C18" s="217" t="s">
+      <c r="C18" s="204" t="s">
         <v>385</v>
       </c>
-      <c r="D18" s="191" t="s">
+      <c r="D18" s="186" t="s">
         <v>386</v>
       </c>
-      <c r="E18" s="214" t="s">
+      <c r="E18" s="201" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="216"/>
+      <c r="A19" s="203"/>
       <c r="B19" s="205"/>
       <c r="C19" s="205"/>
-      <c r="D19" s="192" t="s">
+      <c r="D19" s="187" t="s">
         <v>384</v>
       </c>
-      <c r="E19" s="196" t="s">
+      <c r="E19" s="191" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="207" t="s">
+      <c r="A20" s="198" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="193">
+      <c r="B20" s="188">
         <v>66</v>
       </c>
-      <c r="C20" s="193">
+      <c r="C20" s="188">
         <v>51.16</v>
       </c>
-      <c r="D20" s="193">
+      <c r="D20" s="188">
         <v>66</v>
       </c>
-      <c r="E20" s="198">
+      <c r="E20" s="193">
         <v>51.16</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="208" t="s">
+      <c r="A21" s="199" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="200">
+      <c r="B21" s="195">
         <v>63</v>
       </c>
-      <c r="C21" s="200">
+      <c r="C21" s="195">
         <v>48.84</v>
       </c>
-      <c r="D21" s="200">
+      <c r="D21" s="195">
         <v>129</v>
       </c>
-      <c r="E21" s="201">
+      <c r="E21" s="196">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="206"/>
+      <c r="A22" s="197"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="209" t="s">
+      <c r="A23" s="206" t="s">
         <v>387</v>
       </c>
-      <c r="B23" s="210"/>
+      <c r="B23" s="207"/>
     </row>
     <row r="24" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="211" t="s">
+      <c r="A24" s="208" t="s">
         <v>388</v>
       </c>
-      <c r="B24" s="212"/>
+      <c r="B24" s="209"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="207" t="s">
+      <c r="A25" s="198" t="s">
         <v>389</v>
       </c>
-      <c r="B25" s="198">
+      <c r="B25" s="193">
         <v>6.9800000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="207" t="s">
+      <c r="A26" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="198">
+      <c r="B26" s="193">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="208" t="s">
+      <c r="A27" s="199" t="s">
         <v>390</v>
       </c>
-      <c r="B27" s="213">
+      <c r="B27" s="200">
         <v>0.79169999999999996</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A17:E17"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A2:A3"/>
@@ -21042,7 +21727,11 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24543,19 +25232,19 @@
       </c>
     </row>
     <row r="51" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="184" t="s">
+      <c r="A51" s="211" t="s">
         <v>374</v>
       </c>
-      <c r="B51" s="185"/>
-      <c r="C51" s="185"/>
-      <c r="D51" s="185"/>
-      <c r="E51" s="185"/>
-      <c r="F51" s="185"/>
-      <c r="G51" s="185"/>
-      <c r="H51" s="185"/>
-      <c r="I51" s="185"/>
-      <c r="J51" s="185"/>
-      <c r="K51" s="186"/>
+      <c r="B51" s="212"/>
+      <c r="C51" s="212"/>
+      <c r="D51" s="212"/>
+      <c r="E51" s="212"/>
+      <c r="F51" s="212"/>
+      <c r="G51" s="212"/>
+      <c r="H51" s="212"/>
+      <c r="I51" s="212"/>
+      <c r="J51" s="212"/>
+      <c r="K51" s="213"/>
       <c r="P51" s="52" t="s">
         <v>80</v>
       </c>
@@ -29536,15 +30225,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:I28"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -29564,7 +30253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -29583,8 +30272,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AI2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.9780821918</v>
       </c>
@@ -29603,8 +30295,32 @@
       <c r="F3">
         <v>0.96619701859999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG3" s="219" t="s">
+        <v>393</v>
+      </c>
+      <c r="AH3" s="219" t="s">
+        <v>394</v>
+      </c>
+      <c r="AI3" s="219" t="s">
+        <v>395</v>
+      </c>
+      <c r="AJ3" s="219" t="s">
+        <v>396</v>
+      </c>
+      <c r="AK3" s="219" t="s">
+        <v>397</v>
+      </c>
+      <c r="AL3" s="219" t="s">
+        <v>398</v>
+      </c>
+      <c r="AM3" s="219" t="s">
+        <v>399</v>
+      </c>
+      <c r="AN3" s="219" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.3698630136999999</v>
       </c>
@@ -29623,8 +30339,32 @@
       <c r="F4">
         <v>0.93166584119999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG4" s="220">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="220">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="220">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="220">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="220">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="220">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="220">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5.4356164384000003</v>
       </c>
@@ -29643,18 +30383,42 @@
       <c r="F5">
         <v>0.89632622770000003</v>
       </c>
-      <c r="Q5" s="184" t="s">
+      <c r="Q5" s="211" t="s">
         <v>382</v>
       </c>
-      <c r="R5" s="185"/>
-      <c r="S5" s="185"/>
-      <c r="T5" s="185"/>
-      <c r="U5" s="185"/>
-      <c r="V5" s="185"/>
-      <c r="W5" s="185"/>
-      <c r="X5" s="186"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R5" s="212"/>
+      <c r="S5" s="212"/>
+      <c r="T5" s="212"/>
+      <c r="U5" s="212"/>
+      <c r="V5" s="212"/>
+      <c r="W5" s="212"/>
+      <c r="X5" s="213"/>
+      <c r="AG5" s="220">
+        <v>0.9780821917808219</v>
+      </c>
+      <c r="AH5" s="220">
+        <v>0.98430743550177369</v>
+      </c>
+      <c r="AI5" s="220">
+        <v>5.9534246575342467</v>
+      </c>
+      <c r="AJ5" s="220">
+        <v>0.89682586234319284</v>
+      </c>
+      <c r="AK5" s="220">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="220">
+        <v>0.97438733748656681</v>
+      </c>
+      <c r="AM5" s="220">
+        <v>0.70136986301369864</v>
+      </c>
+      <c r="AN5" s="220">
+        <v>0.96911669215366325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.6630136986000004</v>
       </c>
@@ -29673,8 +30437,32 @@
       <c r="F6">
         <v>0.85997223440000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AG6" s="220">
+        <v>2.3698630136986303</v>
+      </c>
+      <c r="AH6" s="220">
+        <v>0.96744451611729909</v>
+      </c>
+      <c r="AI6" s="220">
+        <v>9.8794520547945197</v>
+      </c>
+      <c r="AJ6" s="220">
+        <v>0.25311934491608906</v>
+      </c>
+      <c r="AK6" s="220">
+        <v>1.4328767123287671</v>
+      </c>
+      <c r="AL6" s="220">
+        <v>0.94825973135865715</v>
+      </c>
+      <c r="AM6" s="220">
+        <v>0.76164383561643834</v>
+      </c>
+      <c r="AN6" s="220">
+        <v>0.93735787889546329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7.5945205479000002</v>
       </c>
@@ -29693,8 +30481,28 @@
       <c r="F7">
         <v>0.82266899319999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AG7" s="220">
+        <v>5.4356164383561643</v>
+      </c>
+      <c r="AH7" s="220">
+        <v>0.94489716138985747</v>
+      </c>
+      <c r="AI7" s="219"/>
+      <c r="AJ7" s="219"/>
+      <c r="AK7" s="220">
+        <v>1.526027397260274</v>
+      </c>
+      <c r="AL7" s="220">
+        <v>0.92164470478429839</v>
+      </c>
+      <c r="AM7" s="220">
+        <v>0.91506849315068495</v>
+      </c>
+      <c r="AN7" s="220">
+        <v>0.9047795683374531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7.6849315067999999</v>
       </c>
@@ -29713,9 +30521,29 @@
       <c r="F8">
         <v>0.78445456790000001</v>
       </c>
-      <c r="Q8" s="188"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q8" s="185"/>
+      <c r="AG8" s="220">
+        <v>6.6630136986301371</v>
+      </c>
+      <c r="AH8" s="220">
+        <v>0.91956557692473284</v>
+      </c>
+      <c r="AI8" s="219"/>
+      <c r="AJ8" s="219"/>
+      <c r="AK8" s="220">
+        <v>1.6465753424657534</v>
+      </c>
+      <c r="AL8" s="220">
+        <v>0.89430568495291041</v>
+      </c>
+      <c r="AM8" s="220">
+        <v>1.1863013698630136</v>
+      </c>
+      <c r="AN8" s="220">
+        <v>0.8711939178503969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.7397260273999997</v>
       </c>
@@ -29734,8 +30562,28 @@
       <c r="F9">
         <v>0.74491522889999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AG9" s="220">
+        <v>7.5945205479452058</v>
+      </c>
+      <c r="AH9" s="220">
+        <v>0.88817008236053008</v>
+      </c>
+      <c r="AI9" s="219"/>
+      <c r="AJ9" s="219"/>
+      <c r="AK9" s="220">
+        <v>2.6410958904109587</v>
+      </c>
+      <c r="AL9" s="220">
+        <v>0.86645897549817319</v>
+      </c>
+      <c r="AM9" s="220">
+        <v>1.4657534246575343</v>
+      </c>
+      <c r="AN9" s="220">
+        <v>0.83653499046206292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.7698630137000002</v>
       </c>
@@ -29754,8 +30602,28 @@
       <c r="F10">
         <v>0.70385268779999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AG10" s="220">
+        <v>7.6849315068493151</v>
+      </c>
+      <c r="AH10" s="220">
+        <v>0.85624598137698316</v>
+      </c>
+      <c r="AI10" s="219"/>
+      <c r="AJ10" s="219"/>
+      <c r="AK10" s="220">
+        <v>3.0164383561643837</v>
+      </c>
+      <c r="AL10" s="220">
+        <v>0.83846156044595033</v>
+      </c>
+      <c r="AM10" s="220">
+        <v>1.4958904109589042</v>
+      </c>
+      <c r="AN10" s="220">
+        <v>0.80108124679923665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.7945205479000004</v>
       </c>
@@ -29774,8 +30642,28 @@
       <c r="F11">
         <v>0.66225215849999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AG11" s="220">
+        <v>7.7397260273972606</v>
+      </c>
+      <c r="AH11" s="220">
+        <v>0.82474569564725098</v>
+      </c>
+      <c r="AI11" s="219"/>
+      <c r="AJ11" s="219"/>
+      <c r="AK11" s="220">
+        <v>3.2356164383561645</v>
+      </c>
+      <c r="AL11" s="220">
+        <v>0.8101993731313184</v>
+      </c>
+      <c r="AM11" s="220">
+        <v>1.6</v>
+      </c>
+      <c r="AN11" s="220">
+        <v>0.76420978198605005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8.1342465753000006</v>
       </c>
@@ -29794,8 +30682,28 @@
       <c r="F12">
         <v>0.61849854800000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AG12" s="220">
+        <v>7.7698630136986298</v>
+      </c>
+      <c r="AH12" s="220">
+        <v>0.79409601623230275</v>
+      </c>
+      <c r="AI12" s="219"/>
+      <c r="AJ12" s="219"/>
+      <c r="AK12" s="220">
+        <v>4.8712328767123285</v>
+      </c>
+      <c r="AL12" s="220">
+        <v>0.77149405181540798</v>
+      </c>
+      <c r="AM12" s="220">
+        <v>1.9452054794520548</v>
+      </c>
+      <c r="AN12" s="220">
+        <v>0.7261435409823318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9.1095890410999996</v>
       </c>
@@ -29814,8 +30722,28 @@
       <c r="F13">
         <v>0.57279256590000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AG13" s="220">
+        <v>7.7945205479452051</v>
+      </c>
+      <c r="AH13" s="220">
+        <v>0.76314227269536739</v>
+      </c>
+      <c r="AI13" s="219"/>
+      <c r="AJ13" s="219"/>
+      <c r="AK13" s="220">
+        <v>4.9753424657534246</v>
+      </c>
+      <c r="AL13" s="220">
+        <v>0.73344982862943253</v>
+      </c>
+      <c r="AM13" s="220">
+        <v>2.6493150684931508</v>
+      </c>
+      <c r="AN13" s="220">
+        <v>0.6873488801409301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9.3315068493000002</v>
       </c>
@@ -29834,8 +30762,28 @@
       <c r="F14" s="19">
         <v>0.51843613099999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AG14" s="220">
+        <v>8.1342465753424662</v>
+      </c>
+      <c r="AH14" s="220">
+        <v>0.72641233158951435</v>
+      </c>
+      <c r="AI14" s="219"/>
+      <c r="AJ14" s="219"/>
+      <c r="AK14" s="220">
+        <v>5.9835616438356167</v>
+      </c>
+      <c r="AL14" s="220">
+        <v>0.692593507216132</v>
+      </c>
+      <c r="AM14" s="220">
+        <v>2.9972602739726026</v>
+      </c>
+      <c r="AN14" s="220">
+        <v>0.6462207189342144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9.7616438355999993</v>
       </c>
@@ -29854,8 +30802,28 @@
       <c r="F15" s="19">
         <v>0.46501472109999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AG15" s="220">
+        <v>9.1095890410958908</v>
+      </c>
+      <c r="AH15" s="220">
+        <v>0.67399932199254997</v>
+      </c>
+      <c r="AI15" s="219"/>
+      <c r="AJ15" s="219"/>
+      <c r="AK15" s="220">
+        <v>5.9945205479452053</v>
+      </c>
+      <c r="AL15" s="220">
+        <v>0.65022728230475224</v>
+      </c>
+      <c r="AM15" s="220">
+        <v>3.1095890410958904</v>
+      </c>
+      <c r="AN15" s="220">
+        <v>0.60299313746856453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10.024657533999999</v>
       </c>
@@ -29874,8 +30842,28 @@
       <c r="F16">
         <v>0.40868939850000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AG16" s="220">
+        <v>9.331506849315069</v>
+      </c>
+      <c r="AH16" s="220">
+        <v>0.62133326737340977</v>
+      </c>
+      <c r="AI16" s="219"/>
+      <c r="AJ16" s="219"/>
+      <c r="AK16" s="220">
+        <v>6.1671232876712327</v>
+      </c>
+      <c r="AL16" s="220">
+        <v>0.6071252625540392</v>
+      </c>
+      <c r="AM16" s="220">
+        <v>4.5013698630136982</v>
+      </c>
+      <c r="AN16" s="220">
+        <v>0.55095437766850752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10.027397260000001</v>
       </c>
@@ -29894,8 +30882,28 @@
       <c r="F17">
         <v>0.34809725149999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AG17" s="220">
+        <v>9.7616438356164377</v>
+      </c>
+      <c r="AH17" s="220">
+        <v>0.56709265583036705</v>
+      </c>
+      <c r="AI17" s="219"/>
+      <c r="AJ17" s="219"/>
+      <c r="AK17" s="220">
+        <v>6.7232876712328764</v>
+      </c>
+      <c r="AL17" s="220">
+        <v>0.56459071686169549</v>
+      </c>
+      <c r="AM17" s="220">
+        <v>4.5643835616438357</v>
+      </c>
+      <c r="AN17" s="220">
+        <v>0.49929578472830194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10.789041096</v>
       </c>
@@ -29914,8 +30922,28 @@
       <c r="F18">
         <v>0.2823133759</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AG18" s="220">
+        <v>10.024657534246575</v>
+      </c>
+      <c r="AH18" s="220">
+        <v>0.50116576903688137</v>
+      </c>
+      <c r="AI18" s="219"/>
+      <c r="AJ18" s="219"/>
+      <c r="AK18" s="220">
+        <v>7.2876712328767121</v>
+      </c>
+      <c r="AL18" s="220">
+        <v>0.49073290799309527</v>
+      </c>
+      <c r="AM18" s="220">
+        <v>4.8</v>
+      </c>
+      <c r="AN18" s="220">
+        <v>0.4442604146000948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11.021917808</v>
       </c>
@@ -29934,8 +30962,28 @@
       <c r="F19">
         <v>0.21788677719999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AG19" s="220">
+        <v>10.027397260273972</v>
+      </c>
+      <c r="AH19" s="220">
+        <v>0.4334760772593762</v>
+      </c>
+      <c r="AI19" s="219"/>
+      <c r="AJ19" s="219"/>
+      <c r="AK19" s="220">
+        <v>8.3698630136986303</v>
+      </c>
+      <c r="AL19" s="220">
+        <v>0.423832704596945</v>
+      </c>
+      <c r="AM19" s="220">
+        <v>5.2082191780821914</v>
+      </c>
+      <c r="AN19" s="220">
+        <v>0.38371276556382689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11.024657533999999</v>
       </c>
@@ -29963,8 +31011,28 @@
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AG20" s="220">
+        <v>10.789041095890411</v>
+      </c>
+      <c r="AH20" s="220">
+        <v>0.34594778785256958</v>
+      </c>
+      <c r="AI20" s="219"/>
+      <c r="AJ20" s="219"/>
+      <c r="AK20" s="220">
+        <v>9.3506849315068497</v>
+      </c>
+      <c r="AL20" s="220">
+        <v>0.34995558362822943</v>
+      </c>
+      <c r="AM20" s="220">
+        <v>6.4821917808219176</v>
+      </c>
+      <c r="AN20" s="220">
+        <v>0.31546696030873705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11.093150684999999</v>
       </c>
@@ -29983,13 +31051,33 @@
       <c r="K21" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="L21" s="187" t="s">
+      <c r="L21" s="184" t="s">
         <v>92</v>
       </c>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AG21" s="220">
+        <v>11.021917808219179</v>
+      </c>
+      <c r="AH21" s="220">
+        <v>0.21102200990879294</v>
+      </c>
+      <c r="AI21" s="219"/>
+      <c r="AJ21" s="219"/>
+      <c r="AK21" s="220">
+        <v>10.775342465753425</v>
+      </c>
+      <c r="AL21" s="220">
+        <v>0.26285517715230289</v>
+      </c>
+      <c r="AM21" s="220">
+        <v>6.506849315068493</v>
+      </c>
+      <c r="AN21" s="220">
+        <v>0.24725079839023695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11.909589041</v>
       </c>
@@ -30008,13 +31096,33 @@
       <c r="K22" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="L22" s="187" t="s">
+      <c r="L22" s="184" t="s">
         <v>92</v>
       </c>
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AG22" s="220">
+        <v>11.024657534246575</v>
+      </c>
+      <c r="AH22" s="220">
+        <v>0.1188716608506957</v>
+      </c>
+      <c r="AI22" s="219"/>
+      <c r="AJ22" s="219"/>
+      <c r="AK22" s="220">
+        <v>10.942465753424658</v>
+      </c>
+      <c r="AL22" s="220">
+        <v>0.16860247537862291</v>
+      </c>
+      <c r="AM22" s="220">
+        <v>6.9835616438356167</v>
+      </c>
+      <c r="AN22" s="220">
+        <v>0.1549077933492263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -30033,13 +31141,29 @@
       <c r="K23" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="L23" s="187" t="s">
+      <c r="L23" s="184" t="s">
         <v>92</v>
       </c>
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AG23" s="220">
+        <v>11.093150684931507</v>
+      </c>
+      <c r="AH23" s="220">
+        <v>5.5330334020579602E-2</v>
+      </c>
+      <c r="AI23" s="219"/>
+      <c r="AJ23" s="219"/>
+      <c r="AK23" s="220">
+        <v>11.175342465753424</v>
+      </c>
+      <c r="AL23" s="220">
+        <v>1.4436176736993567E-2</v>
+      </c>
+      <c r="AM23" s="219"/>
+      <c r="AN23" s="219"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14.843835616</v>
       </c>
@@ -30052,69 +31176,113 @@
       <c r="D24">
         <v>1.9355800000000001E-4</v>
       </c>
-      <c r="J24" s="187">
+      <c r="J24" s="184">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="K24" s="187" t="s">
+      <c r="K24" s="184" t="s">
         <v>376</v>
       </c>
-      <c r="L24" s="187" t="s">
+      <c r="L24" s="184" t="s">
         <v>379</v>
       </c>
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AG24" s="220">
+        <v>11.90958904109589</v>
+      </c>
+      <c r="AH24" s="220">
+        <v>1.9128721755286317E-2</v>
+      </c>
+      <c r="AI24" s="219"/>
+      <c r="AJ24" s="219"/>
+      <c r="AK24" s="220">
+        <v>11.53972602739726</v>
+      </c>
+      <c r="AL24" s="220">
+        <v>1.4096139235240455E-4</v>
+      </c>
+      <c r="AM24" s="219"/>
+      <c r="AN24" s="219"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>11.835616438000001</v>
       </c>
       <c r="D25" s="1">
         <v>2.3979066999999998E-9</v>
       </c>
-      <c r="J25" s="187" t="s">
+      <c r="J25" s="184" t="s">
         <v>141</v>
       </c>
-      <c r="K25" s="187" t="s">
+      <c r="K25" s="184" t="s">
         <v>377</v>
       </c>
-      <c r="L25" s="187" t="s">
+      <c r="L25" s="184" t="s">
         <v>379</v>
       </c>
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J26" s="187" t="s">
+      <c r="AG25" s="220">
+        <v>13</v>
+      </c>
+      <c r="AH25" s="220">
+        <v>1.3065995166277162E-3</v>
+      </c>
+      <c r="AI25" s="219"/>
+      <c r="AJ25" s="219"/>
+      <c r="AK25" s="220">
+        <v>11.835616438356164</v>
+      </c>
+      <c r="AL25" s="220">
+        <v>2.5570924920317128E-9</v>
+      </c>
+      <c r="AM25" s="219"/>
+      <c r="AN25" s="219"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="J26" s="184" t="s">
         <v>141</v>
       </c>
-      <c r="K26" s="187" t="s">
+      <c r="K26" s="184" t="s">
         <v>378</v>
       </c>
-      <c r="L26" s="187" t="s">
+      <c r="L26" s="184" t="s">
         <v>379</v>
       </c>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AG26" s="220">
+        <v>14.843835616438357</v>
+      </c>
+      <c r="AH26" s="220">
+        <v>1.511866996046503E-8</v>
+      </c>
+      <c r="AI26" s="219"/>
+      <c r="AJ26" s="219"/>
+      <c r="AK26" s="219"/>
+      <c r="AL26" s="219"/>
+      <c r="AM26" s="219"/>
+      <c r="AN26" s="219"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
       <c r="N27" s="29"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="189" t="s">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" s="217" t="s">
         <v>383</v>
       </c>
-      <c r="B28" s="190"/>
-      <c r="C28" s="190"/>
-      <c r="D28" s="190"/>
-      <c r="E28" s="190"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="190"/>
-      <c r="H28" s="190"/>
-      <c r="I28" s="190"/>
+      <c r="B28" s="218"/>
+      <c r="C28" s="218"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="218"/>
+      <c r="F28" s="218"/>
+      <c r="G28" s="218"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="218"/>
       <c r="J28" s="29" t="s">
         <v>380</v>
       </c>
@@ -30125,7 +31293,7 @@
       <c r="M28" s="29"/>
       <c r="N28" s="29"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
     </row>
   </sheetData>
@@ -30521,7 +31689,7 @@
       <c r="F19">
         <v>0.16875000000000001</v>
       </c>
-      <c r="I19" s="188"/>
+      <c r="I19" s="185"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -31192,13 +32360,13 @@
       <c r="F4">
         <v>0.93805504419999997</v>
       </c>
-      <c r="Q4" s="187">
+      <c r="Q4" s="184">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="R4" s="187" t="s">
+      <c r="R4" s="184" t="s">
         <v>376</v>
       </c>
-      <c r="S4" s="187" t="s">
+      <c r="S4" s="184" t="s">
         <v>92</v>
       </c>
       <c r="T4" s="29"/>
@@ -31223,13 +32391,13 @@
       <c r="F5">
         <v>0.90585262690000001</v>
       </c>
-      <c r="Q5" s="187" t="s">
+      <c r="Q5" s="184" t="s">
         <v>141</v>
       </c>
-      <c r="R5" s="187" t="s">
+      <c r="R5" s="184" t="s">
         <v>377</v>
       </c>
-      <c r="S5" s="187" t="s">
+      <c r="S5" s="184" t="s">
         <v>92</v>
       </c>
       <c r="T5" s="29"/>
@@ -31254,13 +32422,13 @@
       <c r="F6">
         <v>0.86992519479999997</v>
       </c>
-      <c r="Q6" s="187" t="s">
+      <c r="Q6" s="184" t="s">
         <v>141</v>
       </c>
-      <c r="R6" s="187" t="s">
+      <c r="R6" s="184" t="s">
         <v>378</v>
       </c>
-      <c r="S6" s="187" t="s">
+      <c r="S6" s="184" t="s">
         <v>92</v>
       </c>
       <c r="T6" s="29"/>
@@ -31285,7 +32453,7 @@
       <c r="R7" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="S7" s="187" t="s">
+      <c r="S7" s="184" t="s">
         <v>379</v>
       </c>
       <c r="T7" s="29"/>
@@ -31310,7 +32478,7 @@
       <c r="R8" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="S8" s="187" t="s">
+      <c r="S8" s="184" t="s">
         <v>379</v>
       </c>
       <c r="T8" s="29"/>
@@ -31335,7 +32503,7 @@
       <c r="R9" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="S9" s="187" t="s">
+      <c r="S9" s="184" t="s">
         <v>379</v>
       </c>
       <c r="T9" s="29"/>
@@ -31447,32 +32615,32 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q17" s="184" t="s">
+      <c r="Q17" s="211" t="s">
         <v>382</v>
       </c>
-      <c r="R17" s="185"/>
-      <c r="S17" s="185"/>
-      <c r="T17" s="185"/>
-      <c r="U17" s="185"/>
-      <c r="V17" s="185"/>
-      <c r="W17" s="185"/>
-      <c r="X17" s="186"/>
+      <c r="R17" s="212"/>
+      <c r="S17" s="212"/>
+      <c r="T17" s="212"/>
+      <c r="U17" s="212"/>
+      <c r="V17" s="212"/>
+      <c r="W17" s="212"/>
+      <c r="X17" s="213"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O20" s="188"/>
+      <c r="O20" s="185"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="189" t="s">
+      <c r="A21" s="217" t="s">
         <v>383</v>
       </c>
-      <c r="B21" s="190"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="190"/>
+      <c r="B21" s="218"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="218"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -31488,7 +32656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -31927,7 +33095,7 @@
       <c r="F22">
         <v>8.5817307699999998E-2</v>
       </c>
-      <c r="I22" s="188"/>
+      <c r="I22" s="185"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
